--- a/matlab_attempt/Excel problems/Functions questions.xlsx
+++ b/matlab_attempt/Excel problems/Functions questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A2F4B1C6-016B-41A3-938E-B139D8BD7449}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5950D1DB-2CA9-4F23-8374-990690A8AAE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="4" xr2:uid="{08E12B05-614F-47CC-BC1C-1682C5431AB3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="2" xr2:uid="{08E12B05-614F-47CC-BC1C-1682C5431AB3}"/>
   </bookViews>
   <sheets>
     <sheet name="CG4.1.1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,22 @@
     <sheet name="CG4.1.4" sheetId="3" r:id="rId4"/>
     <sheet name="CG4.1.5" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="256">
   <si>
     <t>questionText</t>
   </si>
@@ -1067,6 +1072,71 @@
   </si>
   <si>
     <t>% Overview of functions</t>
+  </si>
+  <si>
+    <t>function4.1</t>
+  </si>
+  <si>
+    <t>FUNC_NAME</t>
+  </si>
+  <si>
+    <t>funcName</t>
+  </si>
+  <si>
+    <t>INPUT_STR</t>
+  </si>
+  <si>
+    <t>inString</t>
+  </si>
+  <si>
+    <t>OUTPUT_STR</t>
+  </si>
+  <si>
+    <t>outString</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>isCaseSensitive</t>
+  </si>
+  <si>
+    <t>addAnchors</t>
+  </si>
+  <si>
+    <t>isRegexp</t>
+  </si>
+  <si>
+    <t>[answer,funcName,inString,outString,reference] = function4_1();</t>
+  </si>
+  <si>
+    <t>REFERENCE</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+You wish to write a function named $FUNC_NAME/$. The inputs will be named INPUT_STR, while the outputs will be named OUTPUT_STR. Write the Matlab statement that defines the function, i.e. the first line of the file "FUNC_NAME.m".
+&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+A correct way to define $FUNC_NAME/$ would be with the line:
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+$$REFERENCE/$$
+&lt;/p&gt;&lt;br/&gt;
+&lt;p&gt;
+This definition has all the necessary components:&lt;br/&gt;
+&lt;ol&gt;
+   &lt;li&gt;it begins with the keyword $function/$&lt;/li&gt;
+   &lt;li&gt;the name $FUNC_NAME/$ matches the filename&lt;/li&gt;
+   &lt;li&gt;the inputs are enclosed by parentheses&lt;/li&gt;
+   &lt;li&gt;the outputs are enclosed by square brackets&lt;/li&gt;
+   &lt;li&gt;the inputs and outputs are delimited by commas.&lt;/li&gt;
+&lt;/ol&gt;
+&lt;/p&gt;
+&lt;p&gt;
+All five of these aspects are required in the correct answer. You can change some things, such as changing the order of the inputs/outputs or inserting extra spaces after the commas.
+&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1162,6 +1232,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1520,15 +1593,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691D9AF0-187D-4CCD-A4E5-2982BA1E151E}">
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="87.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" style="9" customWidth="1"/>
@@ -3125,7 +3198,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="s">
         <v>1</v>
       </c>
@@ -3136,7 +3209,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
         <v>1</v>
       </c>
@@ -3147,7 +3220,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
         <v>1</v>
       </c>
@@ -3158,7 +3231,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
         <v>3</v>
       </c>
@@ -3172,7 +3245,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
         <v>3</v>
       </c>
@@ -3186,7 +3259,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
         <v>3</v>
       </c>
@@ -3200,7 +3273,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
         <v>3</v>
       </c>
@@ -3214,7 +3287,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
         <v>3</v>
       </c>
@@ -3228,7 +3301,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="293.25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" ht="293.25" x14ac:dyDescent="0.2">
       <c r="B153" s="4" t="s">
         <v>8</v>
       </c>
@@ -3236,7 +3309,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B154" s="2" t="s">
         <v>4</v>
       </c>
@@ -3244,13 +3317,158 @@
         <v>58</v>
       </c>
     </row>
-    <row r="155" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B155" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="12">
         <v>1</v>
       </c>
+    </row>
+    <row r="156" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B163" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E163" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" ht="267.75" x14ac:dyDescent="0.2">
+      <c r="B164" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B165" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B166" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C166" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B167" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C167" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B168" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C168" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3262,8 +3480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60203572-FD71-4073-9ADD-A480A92DD9B1}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E47" sqref="A1:E47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4136,8 +4354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0FCF6F-DF4E-4DC5-BC83-DD6EF4D6CA2E}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/matlab_attempt/Excel problems/Functions questions.xlsx
+++ b/matlab_attempt/Excel problems/Functions questions.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5950D1DB-2CA9-4F23-8374-990690A8AAE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929F67FD-1A7B-4547-AF7C-1A75F5A9945C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="2" xr2:uid="{08E12B05-614F-47CC-BC1C-1682C5431AB3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{08E12B05-614F-47CC-BC1C-1682C5431AB3}"/>
   </bookViews>
   <sheets>
-    <sheet name="CG4.1.1" sheetId="1" r:id="rId1"/>
-    <sheet name="CG4.1.2" sheetId="5" r:id="rId2"/>
-    <sheet name="CG4.1.3" sheetId="2" r:id="rId3"/>
-    <sheet name="CG4.1.4" sheetId="3" r:id="rId4"/>
-    <sheet name="CG4.1.5" sheetId="4" r:id="rId5"/>
+    <sheet name="CG4.1.3" sheetId="2" r:id="rId1"/>
+    <sheet name="CG4.1.4" sheetId="3" r:id="rId2"/>
+    <sheet name="CG4.1.5" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="254">
   <si>
     <t>questionText</t>
   </si>
@@ -1066,12 +1064,6 @@
   </si>
   <si>
     <t>function11_review</t>
-  </si>
-  <si>
-    <t>% Script review</t>
-  </si>
-  <si>
-    <t>% Overview of functions</t>
   </si>
   <si>
     <t>function4.1</t>
@@ -1549,54 +1541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B3DCFE-34EC-4A3E-A51F-9086808F8317}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB3025-47F5-426C-A6CD-97955BB078DC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="63.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691D9AF0-187D-4CCD-A4E5-2982BA1E151E}">
   <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2175,9 +2124,9 @@
     <row r="51" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="12">
+        <v>6</v>
+      </c>
+      <c r="C51" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D51" s="13"/>
@@ -2374,9 +2323,9 @@
     <row r="69" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="12">
+        <v>6</v>
+      </c>
+      <c r="C69" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="13"/>
@@ -3318,22 +3267,22 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155" s="12">
+      <c r="B155" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -3344,7 +3293,7 @@
         <v>22</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -3352,10 +3301,10 @@
         <v>1</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -3363,10 +3312,10 @@
         <v>1</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -3374,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
@@ -3385,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>54</v>
@@ -3421,7 +3370,7 @@
         <v>8</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D164" s="1"/>
     </row>
@@ -3430,13 +3379,13 @@
         <v>4</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D165" s="1"/>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C166" s="1" t="b">
         <v>1</v>
@@ -3445,7 +3394,7 @@
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C167" s="1" t="b">
         <v>1</v>
@@ -3454,7 +3403,7 @@
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C168" s="1" t="b">
         <v>1</v>
@@ -3476,11 +3425,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60203572-FD71-4073-9ADD-A480A92DD9B1}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -4350,11 +4299,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0FCF6F-DF4E-4DC5-BC83-DD6EF4D6CA2E}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/matlab_attempt/Excel problems/Functions questions.xlsx
+++ b/matlab_attempt/Excel problems/Functions questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929F67FD-1A7B-4547-AF7C-1A75F5A9945C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666EB674-D46D-43E6-AE87-27773BE9F78A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{08E12B05-614F-47CC-BC1C-1682C5431AB3}"/>
   </bookViews>
@@ -1544,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691D9AF0-187D-4CCD-A4E5-2982BA1E151E}">
   <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:C69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
